--- a/Advanced_Practices_of_Computer_Use/Week_1/180313.xlsx
+++ b/Advanced_Practices_of_Computer_Use/Week_1/180313.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seojiwon/Desktop/Hanyang/semester2_2/semester2_2/Advanced_Practices_of_Computer_Use/Week_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54294E-7D92-6342-AACD-1C3932AB58CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1886BB8-E689-F644-9278-8101B81798A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시작" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PM_해체" hidden="1">[3]제품정보!#REF!</definedName>
     <definedName name="PM_Emission목록" hidden="1">OFFSET([2]관리인자!$B$29,1,0,COUNTA([2]관리인자!$B$29:'[2]관리인자'!$B$95),8)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="193">
   <si>
     <t>지역별 기상현황 통계자료</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -936,6 +936,14 @@
   </si>
   <si>
     <t>기차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 렌트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +951,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;₩&quot;* #,##0_);_(&quot;₩&quot;* \(#,##0\);_(&quot;₩&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1234,7 +1244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1730,19 +1740,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -2192,10 +2189,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2216,36 +2213,6 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2266,7 +2233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2384,36 +2351,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2442,242 +2391,233 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="25" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2694,6 +2634,27 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="68" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4487,7 +4448,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="141">
+      <c r="B2" s="132">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -4495,7 +4456,7 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="140">
+      <c r="B3" s="131">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -4503,7 +4464,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="140">
+      <c r="B4" s="131">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -4511,7 +4472,7 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="140">
+      <c r="B5" s="131">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -4519,7 +4480,7 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="140">
+      <c r="B6" s="131">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -4535,10 +4496,10 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="140">
+      <c r="B10" s="131">
         <v>43354</v>
       </c>
-      <c r="F10" s="140">
+      <c r="F10" s="131">
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -4785,7 +4746,7 @@
         <v>-2.7</v>
       </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="49"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="2:13" s="5" customFormat="1" ht="19" customHeight="1">
@@ -5620,7 +5581,7 @@
       <c r="J31" s="15">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="K31" s="142"/>
+      <c r="K31" s="133"/>
       <c r="L31" s="15"/>
       <c r="M31" s="17"/>
     </row>
@@ -12163,8 +12124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -12179,22 +12140,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
@@ -12212,11 +12173,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="143">
+      <c r="B4" s="116"/>
+      <c r="C4" s="134">
         <v>43353</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -12248,10 +12209,10 @@
       <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="127"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="34" t="s">
         <v>38</v>
       </c>
@@ -12269,87 +12230,114 @@
       <c r="A8" s="36">
         <v>1</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="135">
+        <v>30000</v>
+      </c>
       <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" customHeight="1">
       <c r="A9" s="36">
         <v>2</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="135">
+        <v>25000</v>
+      </c>
       <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1">
       <c r="A10" s="36">
         <v>3</v>
       </c>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="117"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="38"/>
+      <c r="E10" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="135">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" customHeight="1">
       <c r="A11" s="36">
         <v>4</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="117"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="39"/>
+      <c r="E11" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="135">
+        <v>60000</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" customHeight="1" thickBot="1">
       <c r="A12" s="36">
         <v>5</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="102" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="136">
+        <v>60000</v>
+      </c>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="137">
+        <f>F8+F9+F10+F11+F12</f>
+        <v>225000</v>
+      </c>
+      <c r="G13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12374,186 +12362,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="103" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="103" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="103" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="103" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="103" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="2.6640625" style="97" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="97" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="97" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="23">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
     </row>
     <row r="2" spans="2:9" ht="10" customHeight="1" thickBot="1">
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="2:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="92" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5" customHeight="1" thickTop="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="115"/>
-      <c r="I4" s="99" t="s">
+    <row r="4" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="138">
+        <v>43346</v>
+      </c>
+      <c r="C4" s="93" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="111"/>
-      <c r="I5" s="100" t="s">
+      <c r="D4" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E4" s="139">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="106"/>
+      <c r="I4" s="93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="138">
+        <v>43347</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="111"/>
-      <c r="I6" s="100" t="s">
+      <c r="D5" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E5" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="104"/>
+      <c r="I5" s="94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="138">
+        <v>43348</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="111"/>
-      <c r="I7" s="101" t="s">
+      <c r="D6" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E6" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="104"/>
+      <c r="I6" s="94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="138">
+        <v>43349</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B8" s="110"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="111"/>
-    </row>
-    <row r="9" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B9" s="110"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="111"/>
-    </row>
-    <row r="10" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B10" s="110"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="11" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B11" s="110"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="111"/>
-    </row>
-    <row r="12" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B12" s="110"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="111"/>
-    </row>
-    <row r="13" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B13" s="110"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="111"/>
-    </row>
-    <row r="14" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B14" s="110"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="111"/>
-    </row>
-    <row r="15" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B15" s="110"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="111"/>
-    </row>
-    <row r="16" spans="2:9" ht="22.5" customHeight="1">
-      <c r="B16" s="110"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="111"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1">
-      <c r="B17" s="112"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="113"/>
+      <c r="D7" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E7" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="104"/>
+      <c r="I7" s="95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="138">
+        <v>43350</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E8" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="104"/>
+    </row>
+    <row r="9" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="138">
+        <v>43351</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E9" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="104"/>
+    </row>
+    <row r="10" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="138">
+        <v>43352</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E10" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F10" s="42"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="138">
+        <v>43353</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E11" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="138">
+        <v>43354</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E12" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="138">
+        <v>43355</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E13" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="138">
+        <v>43356</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E14" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="138">
+        <v>43357</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E15" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="2:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="138">
+        <v>43358</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E16" s="140">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" thickTop="1">
+      <c r="B17" s="138">
+        <v>43359</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="139">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E17" s="141">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F17" s="100"/>
+      <c r="G17" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12575,308 +12675,308 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9" style="50"/>
-    <col min="3" max="3" width="16.33203125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="50" customWidth="1"/>
-    <col min="5" max="6" width="9" style="50"/>
-    <col min="7" max="7" width="0.6640625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9" style="50"/>
-    <col min="9" max="9" width="11.1640625" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="5.33203125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9" style="44"/>
+    <col min="3" max="3" width="16.33203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="44" customWidth="1"/>
+    <col min="5" max="6" width="9" style="44"/>
+    <col min="7" max="7" width="0.6640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9" style="44"/>
+    <col min="9" max="9" width="11.1640625" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="27">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="121" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="G2" s="51"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="2:9" ht="24" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="I3" s="56" t="s">
+      <c r="G3" s="45"/>
+      <c r="I3" s="50" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="G4" s="51"/>
-      <c r="I4" s="55" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="G4" s="45"/>
+      <c r="I4" s="49" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="I5" s="55" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="G5" s="45"/>
+      <c r="I5" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="G6" s="51"/>
-      <c r="I6" s="55" t="s">
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="I6" s="49" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="G7" s="51"/>
-      <c r="I7" s="55" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="45"/>
+      <c r="I7" s="49" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="G8" s="51"/>
-      <c r="I8" s="55" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="I8" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="G9" s="51"/>
-      <c r="I9" s="55" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="I9" s="49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="G10" s="51"/>
-      <c r="I10" s="55" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="G10" s="45"/>
+      <c r="I10" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="G11" s="51"/>
-      <c r="I11" s="55" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="G11" s="45"/>
+      <c r="I11" s="49" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="G12" s="51"/>
-      <c r="I12" s="55" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="G12" s="45"/>
+      <c r="I12" s="49" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="G13" s="51"/>
-      <c r="I13" s="55" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="I13" s="49" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="I14" s="55" t="s">
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="49" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="G15" s="51"/>
-      <c r="I15" s="55" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="G15" s="45"/>
+      <c r="I15" s="49" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="G16" s="51"/>
-      <c r="I16" s="55" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="I16" s="49" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="G17" s="51"/>
-      <c r="I17" s="55" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="I17" s="49" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="G18" s="51"/>
-      <c r="I18" s="55" t="s">
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="G18" s="45"/>
+      <c r="I18" s="49" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="G19" s="51"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="G20" s="51"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="G21" s="51"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="G22" s="51"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="G24" s="51"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="G26" s="51"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="G27" s="51"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="G28" s="51"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="G29" s="51"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="G30" s="51"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="G31" s="51"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="G32" s="51"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="G33" s="51"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="G33" s="45"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="G34" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12897,209 +12997,209 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="6" width="15.5" style="58" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="58"/>
+    <col min="1" max="6" width="15.5" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" s="63" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4" spans="1:12" s="63" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="69"/>
-    </row>
-    <row r="5" spans="1:12" s="63" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:12" s="57" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A5" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="136"/>
-    </row>
-    <row r="6" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72" t="s">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="127"/>
+    </row>
+    <row r="6" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="73" t="s">
+    <row r="7" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A7" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="70" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1" thickTop="1">
+      <c r="A8" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="72">
         <v>98428670</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="72">
         <v>4445495</v>
       </c>
-      <c r="F8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="91">
         <v>0.1</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="80">
         <v>3983764</v>
       </c>
-      <c r="F9" s="87"/>
-    </row>
-    <row r="10" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-    </row>
-    <row r="11" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="87"/>
-    </row>
-    <row r="12" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="87"/>
-    </row>
-    <row r="13" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="82"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="87"/>
-    </row>
-    <row r="14" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="87"/>
-    </row>
-    <row r="15" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="87"/>
-    </row>
-    <row r="16" spans="1:12" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="87"/>
-    </row>
-    <row r="17" spans="1:6" s="63" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="96"/>
-    </row>
-    <row r="18" spans="1:6" s="63" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-    </row>
-    <row r="19" spans="1:6" s="63" customFormat="1" ht="18"/>
+      <c r="F9" s="81"/>
+    </row>
+    <row r="10" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+    </row>
+    <row r="11" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="81"/>
+    </row>
+    <row r="12" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="81"/>
+    </row>
+    <row r="13" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="81"/>
+    </row>
+    <row r="14" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="81"/>
+    </row>
+    <row r="15" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="81"/>
+    </row>
+    <row r="16" spans="1:12" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="90"/>
+    </row>
+    <row r="18" spans="1:6" s="57" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A18" s="128"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="130"/>
+    </row>
+    <row r="19" spans="1:6" s="57" customFormat="1" ht="18"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
